--- a/TestAPI_HTTPClient/Excel/ApiCase.xlsx
+++ b/TestAPI_HTTPClient/Excel/ApiCase.xlsx
@@ -1,26 +1,93 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\API_HttpClient\TestAPI_HttpClient\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{AC6D0630-517F-40DC-BDE7-9A88712A312C}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8148CC6F-CF01-4911-AD20-555D1AE11ABC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView tabRatio="422" windowHeight="15990" windowWidth="29040" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>DELL</author>
+  </authors>
+  <commentList>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{6705F783-E9E5-4C82-B77E-B4DBA14AE246}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>DELL:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+当需要获取header时，填写格式为header值添加英文单引号“'”
+例：token='token'
+引号内的token为从依赖返回值内取到的值名称</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{CF3904E9-773C-4FA8-8756-138DA339AA2F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>DELL:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+DELL:
+当需要获取参数时，填写格式为参数值添加英文单引号“'”引住
+例：{"token"="'token'"}
+引号内的token为从依赖返回值内取到的值名称</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
   <si>
     <t>编号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -113,11 +180,6 @@
   </si>
   <si>
     <t>yes</t>
-  </si>
-  <si>
-    <t>Content-Type=application/json;charset=UTF-8
-Accept-Language=zh_CN</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>errorCode</t>
@@ -163,56 +225,65 @@
     <t>pass</t>
   </si>
   <si>
-    <t>resultValue/token</t>
+    <t>修改设备昵称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/device/setting/v2/setDeviceInfo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>machine.qajeejio.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Content-Type=application/json;charset=utf-8</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Content-Type=application/json;charset=UTF-8
 Accept-Language=zh_CN
 token='token'
-sessionId=1B0CC1CA-CB54-4E8A-8255-D0B2B9D5E774</t>
+sessionId='sessionId'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"resultValue":{"dangerNum":1,"passwordIsEmpty":1,"level":80,"loginKey":"VjUyF51FFkieeWYPCdTu6Rmx0W6P8TNhu0GKFr7LGlcRpQRartAyg1PnDIHLdgtHJdQLGaKMXMnaA6p4SpsYHUSUbnSSeGN2rrq9LMmSAY0+JaINwbLjxjoYk9oCnCPUAYaHku51C7g8zIY2klrB+On1Tc3YuQ/12NYj2fvRzA4=","userPhone":"13126668274","sysAccount":"21383","sessionId":"1B0CC1CA-CB54-4E8A-8255-D0B2B9D5E774","userBirth":"2018-04-30T16:00:00.000+0000","source":0,"userName":"球球","userCode":"jeejio_11384","token":"eyJ0eXAiOiJKV1QiLCJhbGciOiJSUzI1NiJ9.eyJzdWIiOiJ7XCJleHBpcmVzRGF0ZVwiOjE2MTAwMDY1OTI1NDMsXCJwbGF0Zm9ybVwiOlwiY29udHJvbFwiLFwic2Vzc2lvbklkXCI6XCIxQjBDQzFDQS1DQjU0LTRFOEEtODI1NS1EMEIyQjlENUU3NzRcIixcInRva2VuU2NlbmVcIjpcIlVTRVJfTE9HSU5cIixcInRvb2xcIjpcIjJcIixcInVzZXJJZFwiOjIwMjAwNTI4MTQyMjR9IiwiZXhwIjoxNjEwMDA2NTkyLCJ1c2VyIjoie1wiZXhwaXJlc0RhdGVcIjoxNjEwMDA2NTkyNTQzLFwicGxhdGZvcm1cIjpcImNvbnRyb2xcIixcInNlc3Npb25JZFwiOlwiMUIwQ0MxQ0EtQ0I1NC00RThBLTgyNTUtRDBCMkI5RDVFNzc0XCIsXCJ0b2tlblNjZW5lXCI6XCJVU0VSX0xPR0lOXCIsXCJ0b29sXCI6XCIyXCIsXCJ1c2VySWRcIjoyMDIwMDUyODE0MjI0fSIsImlhdCI6MTYxMDAwNDc5Mn0.kDGVL3bQ-SK0AQe3k0rWupI095Bd6dgtodJhM9cHk2V9ds1wguyhjg00beehiACJbkZOc7ZATZgFBB3mDuwVeQ","tokenExpires":1610006592543,"imgUrl":"https://qauserimgs.jeejio.com/qa/2020052814224/userinfo/2020-11-24/56acf782058e4e36907e295bec89f977.jpg","userPasswd":"1","phone":"f","userEmail":"13126668274@163.com","id":2020052814224,"email":"f","account":"t","status":1},"success":1,"statusCode":200}</t>
-  </si>
-  <si>
-    <t>{"success":0,"errorCode":"8520003","message":"sessionId有误,无权访问","statusCode":200}</t>
-  </si>
-  <si>
-    <t>{"resultValue":{"dangerNum":1,"passwordIsEmpty":1,"level":80,"loginKey":"lxx4zwFv9dX00JiJHptm/wj8/FiJ5O2E9tLKXHBQjnjMahUojTZMPqRulk8kf1KJmDPqumaraR/wrDFq+l41J22EctGilZH1+LVwAGde8RrXwvjCpSLa6uAVsxgdtxXgQjahTlB97aedhbkfJ+v+Kh1EI0TCH+HkcQm+NAZ0s+Q=","userPhone":"13126668274","sysAccount":"21383","sessionId":"1B0CC1CA-CB54-4E8A-8255-D0B2B9D5E774","userBirth":"2018-04-30T16:00:00.000+0000","source":0,"userName":"球球","userCode":"jeejio_11384","token":"eyJ0eXAiOiJKV1QiLCJhbGciOiJSUzI1NiJ9.eyJzdWIiOiJ7XCJleHBpcmVzRGF0ZVwiOjE2MTAwMDY2NzMzNTQsXCJwbGF0Zm9ybVwiOlwiY29udHJvbFwiLFwic2Vzc2lvbklkXCI6XCIxQjBDQzFDQS1DQjU0LTRFOEEtODI1NS1EMEIyQjlENUU3NzRcIixcInRva2VuU2NlbmVcIjpcIlVTRVJfTE9HSU5cIixcInRvb2xcIjpcIjJcIixcInVzZXJJZFwiOjIwMjAwNTI4MTQyMjR9IiwiZXhwIjoxNjEwMDA2NjczLCJ1c2VyIjoie1wiZXhwaXJlc0RhdGVcIjoxNjEwMDA2NjczMzU0LFwicGxhdGZvcm1cIjpcImNvbnRyb2xcIixcInNlc3Npb25JZFwiOlwiMUIwQ0MxQ0EtQ0I1NC00RThBLTgyNTUtRDBCMkI5RDVFNzc0XCIsXCJ0b2tlblNjZW5lXCI6XCJVU0VSX0xPR0lOXCIsXCJ0b29sXCI6XCIyXCIsXCJ1c2VySWRcIjoyMDIwMDUyODE0MjI0fSIsImlhdCI6MTYxMDAwNDg3M30.LboE-EqZO8Als4EqWEAQHAEEg2I_9NLolcwsLj_1Gwr8W2usbyiqVsqTXTMJRMMobfo5jU-C_tDxEmcHxGGk0A","tokenExpires":1610006673354,"imgUrl":"https://qauserimgs.jeejio.com/qa/2020052814224/userinfo/2020-11-24/56acf782058e4e36907e295bec89f977.jpg","userPasswd":"1","phone":"f","userEmail":"13126668274@163.com","id":2020052814224,"email":"f","account":"t","status":1},"success":1,"statusCode":200}</t>
-  </si>
-  <si>
-    <t>{"resultValue":{"dangerNum":1,"passwordIsEmpty":1,"level":80,"loginKey":"SrNmqXc7fR7hM0VHCxHqbT/eQGro+IGdtUSdTFmprSh8GQoqZHFEZU5LHB8U86wukT4MDB3dVgWTrtItR/B6xvNowepxde/ubcHUNrkusmH1gnjDJf250fZT/OLW9oJh8o/vML/aL3XnPha1VLmdhUK7pOw+k0Cc3p7MxK6iC9Q=","userPhone":"13126668274","sysAccount":"21383","sessionId":"1B0CC1CA-CB54-4E8A-8255-D0B2B9D5E774","userBirth":"2018-04-30T16:00:00.000+0000","source":0,"userName":"球球","userCode":"jeejio_11384","token":"eyJ0eXAiOiJKV1QiLCJhbGciOiJSUzI1NiJ9.eyJzdWIiOiJ7XCJleHBpcmVzRGF0ZVwiOjE2MTAwMDY3NTkxMDIsXCJwbGF0Zm9ybVwiOlwiY29udHJvbFwiLFwic2Vzc2lvbklkXCI6XCIxQjBDQzFDQS1DQjU0LTRFOEEtODI1NS1EMEIyQjlENUU3NzRcIixcInRva2VuU2NlbmVcIjpcIlVTRVJfTE9HSU5cIixcInRvb2xcIjpcIjJcIixcInVzZXJJZFwiOjIwMjAwNTI4MTQyMjR9IiwiZXhwIjoxNjEwMDA2NzU5LCJ1c2VyIjoie1wiZXhwaXJlc0RhdGVcIjoxNjEwMDA2NzU5MTAyLFwicGxhdGZvcm1cIjpcImNvbnRyb2xcIixcInNlc3Npb25JZFwiOlwiMUIwQ0MxQ0EtQ0I1NC00RThBLTgyNTUtRDBCMkI5RDVFNzc0XCIsXCJ0b2tlblNjZW5lXCI6XCJVU0VSX0xPR0lOXCIsXCJ0b29sXCI6XCIyXCIsXCJ1c2VySWRcIjoyMDIwMDUyODE0MjI0fSIsImlhdCI6MTYxMDAwNDk1OX0.W7OVLgORQRJiLcpFIqYdACvTsLxH1mssNP1ahclcHIeEdQUUGWYNfZk33lU4GTh3VHciqlBHrCVWeho4vAgSdA","tokenExpires":1610006759102,"imgUrl":"https://qauserimgs.jeejio.com/qa/2020052814224/userinfo/2020-11-24/56acf782058e4e36907e295bec89f977.jpg","userPasswd":"1","phone":"f","userEmail":"13126668274@163.com","id":2020052814224,"email":"f","account":"t","status":1},"success":1,"statusCode":200}</t>
-  </si>
-  <si>
-    <t>{"resultValue":{"dangerNum":1,"passwordIsEmpty":1,"level":80,"loginKey":"V9mjGAYsIB0nwpFoPxXw+d66HBbzdywqi23I/Nl2/xJWPjRdEiUxYO4nQKJMMiGfh1y0w4y+2I4E3N5efhaRdqoUeDhMULEx4wT7LJhWCdGV2LrD1aFq4P8+gWL1Qj7+GlQ9s5RsMAbtuQ3zoWNyr0sfB0IdsY3P9vOAlEJNin8=","userPhone":"13126668274","sysAccount":"21383","sessionId":"1B0CC1CA-CB54-4E8A-8255-D0B2B9D5E774","userBirth":"2018-04-30T16:00:00.000+0000","source":0,"userName":"球球","userCode":"jeejio_11384","token":"eyJ0eXAiOiJKV1QiLCJhbGciOiJSUzI1NiJ9.eyJzdWIiOiJ7XCJleHBpcmVzRGF0ZVwiOjE2MTAwMDY3ODIwODMsXCJwbGF0Zm9ybVwiOlwiY29udHJvbFwiLFwic2Vzc2lvbklkXCI6XCIxQjBDQzFDQS1DQjU0LTRFOEEtODI1NS1EMEIyQjlENUU3NzRcIixcInRva2VuU2NlbmVcIjpcIlVTRVJfTE9HSU5cIixcInRvb2xcIjpcIjJcIixcInVzZXJJZFwiOjIwMjAwNTI4MTQyMjR9IiwiZXhwIjoxNjEwMDA2NzgyLCJ1c2VyIjoie1wiZXhwaXJlc0RhdGVcIjoxNjEwMDA2NzgyMDgzLFwicGxhdGZvcm1cIjpcImNvbnRyb2xcIixcInNlc3Npb25JZFwiOlwiMUIwQ0MxQ0EtQ0I1NC00RThBLTgyNTUtRDBCMkI5RDVFNzc0XCIsXCJ0b2tlblNjZW5lXCI6XCJVU0VSX0xPR0lOXCIsXCJ0b29sXCI6XCIyXCIsXCJ1c2VySWRcIjoyMDIwMDUyODE0MjI0fSIsImlhdCI6MTYxMDAwNDk4Mn0.Am9sRc06P3PHZ9K8lv4H4nHLpJkhr681A-xtgxRu_Cd8upFSs31Ff1I8T-PSmto1oD4RvgExi_10q8lnlzZ9_Q","tokenExpires":1610006782083,"imgUrl":"https://qauserimgs.jeejio.com/qa/2020052814224/userinfo/2020-11-24/56acf782058e4e36907e295bec89f977.jpg","userPasswd":"1","phone":"f","userEmail":"13126668274@163.com","id":2020052814224,"email":"f","account":"t","status":1},"success":1,"statusCode":200}</t>
-  </si>
-  <si>
-    <t>{"resultValue":{"dangerNum":1,"passwordIsEmpty":1,"level":80,"loginKey":"W83g2mUZUTkbhfI57F5P5GzVIJLwzsLklfJ7ul6/f6o5b0LZ92V8PyWB1zgxeYgfEEQ8CF+z/B/KDbEBTNU8ti/8l2j+HAA7akqrur0l42E8Gq3X6Ndco+KB/YLNXBmY2v9fgI872D26q4cvh5XPl2gaRo0yvmCR6CpmsadH3Gs=","userPhone":"13126668274","sysAccount":"21383","sessionId":"1B0CC1CA-CB54-4E8A-8255-D0B2B9D5E774","userBirth":"2018-04-30T16:00:00.000+0000","source":0,"userName":"球球","userCode":"jeejio_11384","token":"eyJ0eXAiOiJKV1QiLCJhbGciOiJSUzI1NiJ9.eyJzdWIiOiJ7XCJleHBpcmVzRGF0ZVwiOjE2MTAwMDc0OTM2ODUsXCJwbGF0Zm9ybVwiOlwiY29udHJvbFwiLFwic2Vzc2lvbklkXCI6XCIxQjBDQzFDQS1DQjU0LTRFOEEtODI1NS1EMEIyQjlENUU3NzRcIixcInRva2VuU2NlbmVcIjpcIlVTRVJfTE9HSU5cIixcInRvb2xcIjpcIjJcIixcInVzZXJJZFwiOjIwMjAwNTI4MTQyMjR9IiwiZXhwIjoxNjEwMDA3NDkzLCJ1c2VyIjoie1wiZXhwaXJlc0RhdGVcIjoxNjEwMDA3NDkzNjg1LFwicGxhdGZvcm1cIjpcImNvbnRyb2xcIixcInNlc3Npb25JZFwiOlwiMUIwQ0MxQ0EtQ0I1NC00RThBLTgyNTUtRDBCMkI5RDVFNzc0XCIsXCJ0b2tlblNjZW5lXCI6XCJVU0VSX0xPR0lOXCIsXCJ0b29sXCI6XCIyXCIsXCJ1c2VySWRcIjoyMDIwMDUyODE0MjI0fSIsImlhdCI6MTYxMDAwNTY5M30.hWCt2qbAt1u7iQLQwjuP8Bh77xcHWKnTT9vnZlcsC6IfNeC1gXquPnNh6Zk_3oGO2NysVNjgG8vZ44bUiv0cFg","tokenExpires":1610007493685,"imgUrl":"https://qauserimgs.jeejio.com/qa/2020052814224/userinfo/2020-11-24/56acf782058e4e36907e295bec89f977.jpg","userPasswd":"1","phone":"f","userEmail":"13126668274@163.com","id":2020052814224,"email":"f","account":"t","status":1},"success":1,"statusCode":200}</t>
+    <t>resultValue/token
+resultValue/sessionId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>{"success":1,"statusCode":200}</t>
   </si>
   <si>
-    <t>{"resultValue":{"dangerNum":1,"passwordIsEmpty":1,"level":80,"loginKey":"Rgw5ixq8TqxJ38rKzvLx5pr8xqnUCyiOj5j2rBJ4gxaH7kI9R7XhPaSC5Tj3ZqFIS1ZYDw0xbc1i93pnEXvgEQJesseE+Qw5jj7R8B8grR4gynkXmP5ndBJ4WjiwxLtGhiTsS2qbHEureP8IXpCpqUOEErjLE5pjLiNgVA/hj8U=","userPhone":"13126668274","sysAccount":"21383","sessionId":"1B0CC1CA-CB54-4E8A-8255-D0B2B9D5E774","userBirth":"2020-05-27T16:00:00.000+0000","source":0,"userName":"??","userCode":"jeejio_11384","token":"eyJ0eXAiOiJKV1QiLCJhbGciOiJSUzI1NiJ9.eyJzdWIiOiJ7XCJleHBpcmVzRGF0ZVwiOjE2MTAwMDc1MjQ4OTIsXCJwbGF0Zm9ybVwiOlwiY29udHJvbFwiLFwic2Vzc2lvbklkXCI6XCIxQjBDQzFDQS1DQjU0LTRFOEEtODI1NS1EMEIyQjlENUU3NzRcIixcInRva2VuU2NlbmVcIjpcIlVTRVJfTE9HSU5cIixcInRvb2xcIjpcIjJcIixcInVzZXJJZFwiOjIwMjAwNTI4MTQyMjR9IiwiZXhwIjoxNjEwMDA3NTI0LCJ1c2VyIjoie1wiZXhwaXJlc0RhdGVcIjoxNjEwMDA3NTI0ODkyLFwicGxhdGZvcm1cIjpcImNvbnRyb2xcIixcInNlc3Npb25JZFwiOlwiMUIwQ0MxQ0EtQ0I1NC00RThBLTgyNTUtRDBCMkI5RDVFNzc0XCIsXCJ0b2tlblNjZW5lXCI6XCJVU0VSX0xPR0lOXCIsXCJ0b29sXCI6XCIyXCIsXCJ1c2VySWRcIjoyMDIwMDUyODE0MjI0fSIsImlhdCI6MTYxMDAwNTcyNH0.oLlbxN4WGu5reunSd7vCSX5rgm-DIqN4JBFl8U0wVqwh1gvbYogYXmjQdwzTLhhciUKXQeHfFnDmHxu_xbZ75Q","tokenExpires":1610007524892,"imgUrl":"https://qauserimgs.jeejio.com/qa/2020052814224/userinfo/2020-11-24/56acf782058e4e36907e295bec89f977.jpg","userPasswd":"1","phone":"f","userEmail":"13126668274@163.com","id":2020052814224,"email":"f","account":"t","status":1},"success":1,"statusCode":200}</t>
-  </si>
-  <si>
-    <t>{"resultValue":{"dangerNum":1,"passwordIsEmpty":1,"level":80,"loginKey":"gydGWYrmvE6ozAN5bbVWWhcl9NVnGP4zp4BhzmG1BfFMUAHn5k4+yp6wJlRIlYj3h6cpOiFvVwXSqengvHDs+G1eIc/ipUsv8pqUc72eprvTiWkPknxU0Wiluz9Mla9q68g1LR+qY8C7pkSHrF+S5VakU+zAMc+jx8Rl4fvfCQI=","userPhone":"13126668274","sysAccount":"21383","sessionId":"1B0CC1CA-CB54-4E8A-8255-D0B2B9D5E774","userBirth":"2020-05-27T16:00:00.000+0000","source":0,"userName":"??","userCode":"jeejio_11384","token":"eyJ0eXAiOiJKV1QiLCJhbGciOiJSUzI1NiJ9.eyJzdWIiOiJ7XCJleHBpcmVzRGF0ZVwiOjE2MTAwMDc1NjA3MzksXCJwbGF0Zm9ybVwiOlwiY29udHJvbFwiLFwic2Vzc2lvbklkXCI6XCIxQjBDQzFDQS1DQjU0LTRFOEEtODI1NS1EMEIyQjlENUU3NzRcIixcInRva2VuU2NlbmVcIjpcIlVTRVJfTE9HSU5cIixcInRvb2xcIjpcIjJcIixcInVzZXJJZFwiOjIwMjAwNTI4MTQyMjR9IiwiZXhwIjoxNjEwMDA3NTYwLCJ1c2VyIjoie1wiZXhwaXJlc0RhdGVcIjoxNjEwMDA3NTYwNzM5LFwicGxhdGZvcm1cIjpcImNvbnRyb2xcIixcInNlc3Npb25JZFwiOlwiMUIwQ0MxQ0EtQ0I1NC00RThBLTgyNTUtRDBCMkI5RDVFNzc0XCIsXCJ0b2tlblNjZW5lXCI6XCJVU0VSX0xPR0lOXCIsXCJ0b29sXCI6XCIyXCIsXCJ1c2VySWRcIjoyMDIwMDUyODE0MjI0fSIsImlhdCI6MTYxMDAwNTc2MH0.c_xgXhW1dwigicQ2vDpn-0AlPfrKvgV4IYKmkIiknYJiWQ7OzvWiHGav8n1C-lbzcYVNjVnooFsY8HuJLirxDg","tokenExpires":1610007560739,"imgUrl":"https://qauserimgs.jeejio.com/qa/2020052814224/userinfo/2020-11-24/56acf782058e4e36907e295bec89f977.jpg","userPasswd":"1","phone":"f","userEmail":"13126668274@163.com","id":2020052814224,"email":"f","account":"t","status":1},"success":1,"statusCode":200}</t>
-  </si>
-  <si>
-    <t>{"resultValue":{"dangerNum":1,"passwordIsEmpty":1,"level":80,"loginKey":"d365hmKlpcio7Yaor0T1YldXKmYcSA/JVob+h+JRFxqK9mEisgWZJTF5IOG3tpK/PzMNLi7MR5OpdY3dkJ7EW9jbTbC5PY2K8GIH5jVIMp1fBtiAA6EnxXh5YVtJuEPS8+/lY7f5axrcljn8AkD82MlfJ9NWcy85X+OB2XqDAGM=","userPhone":"13126668274","sysAccount":"21383","sessionId":"1B0CC1CA-CB54-4E8A-8255-D0B2B9D5E774","userBirth":"2020-05-27T16:00:00.000+0000","source":0,"userName":"??","userCode":"jeejio_11384","token":"eyJ0eXAiOiJKV1QiLCJhbGciOiJSUzI1NiJ9.eyJzdWIiOiJ7XCJleHBpcmVzRGF0ZVwiOjE2MTAwMDc2OTk1NDcsXCJwbGF0Zm9ybVwiOlwiY29udHJvbFwiLFwic2Vzc2lvbklkXCI6XCIxQjBDQzFDQS1DQjU0LTRFOEEtODI1NS1EMEIyQjlENUU3NzRcIixcInRva2VuU2NlbmVcIjpcIlVTRVJfTE9HSU5cIixcInRvb2xcIjpcIjJcIixcInVzZXJJZFwiOjIwMjAwNTI4MTQyMjR9IiwiZXhwIjoxNjEwMDA3Njk5LCJ1c2VyIjoie1wiZXhwaXJlc0RhdGVcIjoxNjEwMDA3Njk5NTQ3LFwicGxhdGZvcm1cIjpcImNvbnRyb2xcIixcInNlc3Npb25JZFwiOlwiMUIwQ0MxQ0EtQ0I1NC00RThBLTgyNTUtRDBCMkI5RDVFNzc0XCIsXCJ0b2tlblNjZW5lXCI6XCJVU0VSX0xPR0lOXCIsXCJ0b29sXCI6XCIyXCIsXCJ1c2VySWRcIjoyMDIwMDUyODE0MjI0fSIsImlhdCI6MTYxMDAwNTg5OX0.D8vgsjfZo05BTtNZNOx-GmEfA_KVatXynATWZDu0lfzwk4lzp1xZw2uFD-jiNyT9ft08PwWoWAQn-s6AuOfGiw","tokenExpires":1610007699547,"imgUrl":"https://qauserimgs.jeejio.com/qa/2020052814224/userinfo/2020-11-24/56acf782058e4e36907e295bec89f977.jpg","userPasswd":"1","phone":"f","userEmail":"13126668274@163.com","id":2020052814224,"email":"f","account":"t","status":1},"success":1,"statusCode":200}</t>
-  </si>
-  <si>
-    <t>{"resultValue":{"dangerNum":1,"passwordIsEmpty":1,"level":80,"loginKey":"nUPGEcCOenRy8Z7v3wk9W12A9h+UIsuIqV9uefM/Ed1GhAABB2Cx/k7zXLch39iu2PliWz1lrJc7m/61HrBqLBFJSN21BEOs6qxlPKI1qt+Bb+W75gj1OQ/qjneqPSHxuecZNv6+6AxnmMAncFijmwLD8dapgcqQqVu2Pi/6QxE=","userPhone":"13126668274","sysAccount":"21383","sessionId":"1B0CC1CA-CB54-4E8A-8255-D0B2B9D5E774","userBirth":"2020-05-27T16:00:00.000+0000","source":0,"userName":"??","userCode":"jeejio_11384","token":"eyJ0eXAiOiJKV1QiLCJhbGciOiJSUzI1NiJ9.eyJzdWIiOiJ7XCJleHBpcmVzRGF0ZVwiOjE2MTAwMDc3OTE0MDYsXCJwbGF0Zm9ybVwiOlwiY29udHJvbFwiLFwic2Vzc2lvbklkXCI6XCIxQjBDQzFDQS1DQjU0LTRFOEEtODI1NS1EMEIyQjlENUU3NzRcIixcInRva2VuU2NlbmVcIjpcIlVTRVJfTE9HSU5cIixcInRvb2xcIjpcIjJcIixcInVzZXJJZFwiOjIwMjAwNTI4MTQyMjR9IiwiZXhwIjoxNjEwMDA3NzkxLCJ1c2VyIjoie1wiZXhwaXJlc0RhdGVcIjoxNjEwMDA3NzkxNDA2LFwicGxhdGZvcm1cIjpcImNvbnRyb2xcIixcInNlc3Npb25JZFwiOlwiMUIwQ0MxQ0EtQ0I1NC00RThBLTgyNTUtRDBCMkI5RDVFNzc0XCIsXCJ0b2tlblNjZW5lXCI6XCJVU0VSX0xPR0lOXCIsXCJ0b29sXCI6XCIyXCIsXCJ1c2VySWRcIjoyMDIwMDUyODE0MjI0fSIsImlhdCI6MTYxMDAwNTk5MX0.Ts3ib32WdsjP4Fra_QD5q30a1ciQ4vnjsNlC3B7AcRM85E1bbg2Lqviy4WbcdnvbxOJUMmixNSgQ6w6DfPz3dQ","tokenExpires":1610007791406,"imgUrl":"https://qauserimgs.jeejio.com/qa/2020052814224/userinfo/2020-11-24/56acf782058e4e36907e295bec89f977.jpg","userPasswd":"1","phone":"f","userEmail":"13126668274@163.com","id":2020052814224,"email":"f","account":"t","status":1},"success":1,"statusCode":200}</t>
+    <t>{
+ "machineName": "'id'",
+ "machineCode": "01271800001800000002",
+ "userCode": "jeejio_11384"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"resultValue":{"dangerNum":1,"passwordIsEmpty":1,"level":80,"loginKey":"AgSWqBKduq7zSnP/kxISa4VYalEAWGHmWpLEqozxbYg1rvk0EOJA9ciY4r41wq5LgIFbiCBToWclFdWhipi/9Q7pFtEvOaAvg/GQvk/AqYthaYekP49ybQjJbIoLJsuULhxPhL9z7uLDIcSZAjR5OkrJ1FNwWYqbWoKYqEoP04w=","userPhone":"13126668274","sysAccount":"21383","sessionId":"1B0CC1CA-CB54-4E8A-8255-D0B2B9D5E774","userBirth":"2020-05-28","source":0,"userName":"球球","userCode":"jeejio_11384","token":"eyJ0eXAiOiJKV1QiLCJhbGciOiJSUzI1NiJ9.eyJzdWIiOiJ7XCJleHBpcmVzRGF0ZVwiOjE2MTAxMDMwNDE1ODksXCJwbGF0Zm9ybVwiOlwiY29udHJvbFwiLFwic2Vzc2lvbklkXCI6XCIxQjBDQzFDQS1DQjU0LTRFOEEtODI1NS1EMEIyQjlENUU3NzRcIixcInRva2VuU2NlbmVcIjpcIlVTRVJfTE9HSU5cIixcInRvb2xcIjpcIjJcIixcInVzZXJJZFwiOjIwMjAwNTI4MTQyMjR9IiwiZXhwIjoxNjEwMTAzMDQxLCJ1c2VyIjoie1wiZXhwaXJlc0RhdGVcIjoxNjEwMTAzMDQxNTg5LFwicGxhdGZvcm1cIjpcImNvbnRyb2xcIixcInNlc3Npb25JZFwiOlwiMUIwQ0MxQ0EtQ0I1NC00RThBLTgyNTUtRDBCMkI5RDVFNzc0XCIsXCJ0b2tlblNjZW5lXCI6XCJVU0VSX0xPR0lOXCIsXCJ0b29sXCI6XCIyXCIsXCJ1c2VySWRcIjoyMDIwMDUyODE0MjI0fSIsImlhdCI6MTYxMDEwMTI0MX0.Ft_UCBCCj6z4DWb3-v3LStL7LBBHrspj0jxu8kMLpoBdSh7Q_43_MYTZMY8gsDjAZFaANuPMcd3p2J_njYUHiQ","tokenExpires":1610103041589,"imgUrl":"https://qauserimgs.jeejio.com/qa/2020052814224/userinfo/2020-11-24/56acf782058e4e36907e295bec89f977.jpg","userPasswd":"1","phone":"f","userEmail":"13126668274@163.com","id":2020052814224,"email":"f","account":"t","status":1},"success":1,"statusCode":200}</t>
+  </si>
+  <si>
+    <t>resultValue/token
+resultValue/sessionId
+resultValue/id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Content-Type=application/json;charset=utf-8
+token='token'
+sessionId='sessionId'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,6 +320,29 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -268,34 +362,40 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
-    <cellStyle builtinId="8" hidden="1" name="超链接" xfId="1"/>
-    <cellStyle builtinId="9" hidden="1" name="已访问的超链接" xfId="2"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -312,10 +412,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -473,7 +573,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -482,13 +582,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -498,7 +598,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -507,7 +607,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -516,7 +616,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -526,12 +626,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -562,7 +662,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -581,7 +681,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -593,33 +693,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="5.25" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="20.125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="9.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="26.125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="38.25" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="9.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="48.25" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="13.5" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="23.875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="19.25" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="74.875" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="69.5" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="31.625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="5.5" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="69.375" collapsed="true"/>
+    <col min="1" max="1" width="5.25" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="26.125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="38.25" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="48.25" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.5" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="23.875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19.25" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="74.875" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="69.5" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="31.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="5.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="69.375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.15">
@@ -641,7 +743,7 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -663,7 +765,7 @@
         <v>12</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>13</v>
@@ -678,7 +780,7 @@
         <v>15</v>
       </c>
     </row>
-    <row customHeight="1" ht="101.25" r="2" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" ht="101.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -698,7 +800,7 @@
         <v>20</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>21</v>
@@ -713,16 +815,16 @@
         <v>21</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>45</v>
+        <v>29</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="N2" s="3">
         <v>200</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>21</v>
@@ -731,15 +833,15 @@
         <v>23</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
-    <row customHeight="1" ht="131.25" r="3" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" ht="131.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>17</v>
@@ -748,19 +850,19 @@
         <v>18</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="2">
+      <c r="G3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="3">
         <v>1</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>33</v>
+      <c r="I3" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>21</v>
@@ -769,16 +871,16 @@
         <v>21</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="N3" s="3">
         <v>200</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>21</v>
@@ -787,23 +889,80 @@
         <v>23</v>
       </c>
       <c r="R3" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>32</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="3">
+        <v>200</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="Q1:Q1048576" type="list" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q1048576" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"yes,no"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="F1:F1048576" type="list" xr:uid="{581F6EDF-4799-4DCD-9FC9-270FE2F5A6C4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{581F6EDF-4799-4DCD-9FC9-270FE2F5A6C4}">
       <formula1>"get,post,put,delete"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C1:C1048576" type="list" xr:uid="{BFB11C5A-1745-4A6A-9B14-A29FD2FF8A77}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{BFB11C5A-1745-4A6A-9B14-A29FD2FF8A77}">
       <formula1>"http,https"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/TestAPI_HTTPClient/Excel/ApiCase.xlsx
+++ b/TestAPI_HTTPClient/Excel/ApiCase.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\API_HttpClient\TestAPI_HttpClient\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8148CC6F-CF01-4911-AD20-555D1AE11ABC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{E26100F7-81B2-4C6A-9086-A5BA6691A030}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView tabRatio="422" windowHeight="15990" windowWidth="29040" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -25,7 +25,7 @@
     <author>DELL</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{6705F783-E9E5-4C82-B77E-B4DBA14AE246}">
+    <comment authorId="0" ref="G1" shapeId="0" xr:uid="{6705F783-E9E5-4C82-B77E-B4DBA14AE246}">
       <text>
         <r>
           <rPr>
@@ -53,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{CF3904E9-773C-4FA8-8756-138DA339AA2F}">
+    <comment authorId="0" ref="L1" shapeId="0" xr:uid="{CF3904E9-773C-4FA8-8756-138DA339AA2F}">
       <text>
         <r>
           <rPr>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="47">
   <si>
     <t>编号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -237,17 +237,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Content-Type=application/json;charset=utf-8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Content-Type=application/json;charset=UTF-8
-Accept-Language=zh_CN
-token='token'
-sessionId='sessionId'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>resultValue/token
 resultValue/sessionId</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -264,25 +253,42 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"resultValue":{"dangerNum":1,"passwordIsEmpty":1,"level":80,"loginKey":"AgSWqBKduq7zSnP/kxISa4VYalEAWGHmWpLEqozxbYg1rvk0EOJA9ciY4r41wq5LgIFbiCBToWclFdWhipi/9Q7pFtEvOaAvg/GQvk/AqYthaYekP49ybQjJbIoLJsuULhxPhL9z7uLDIcSZAjR5OkrJ1FNwWYqbWoKYqEoP04w=","userPhone":"13126668274","sysAccount":"21383","sessionId":"1B0CC1CA-CB54-4E8A-8255-D0B2B9D5E774","userBirth":"2020-05-28","source":0,"userName":"球球","userCode":"jeejio_11384","token":"eyJ0eXAiOiJKV1QiLCJhbGciOiJSUzI1NiJ9.eyJzdWIiOiJ7XCJleHBpcmVzRGF0ZVwiOjE2MTAxMDMwNDE1ODksXCJwbGF0Zm9ybVwiOlwiY29udHJvbFwiLFwic2Vzc2lvbklkXCI6XCIxQjBDQzFDQS1DQjU0LTRFOEEtODI1NS1EMEIyQjlENUU3NzRcIixcInRva2VuU2NlbmVcIjpcIlVTRVJfTE9HSU5cIixcInRvb2xcIjpcIjJcIixcInVzZXJJZFwiOjIwMjAwNTI4MTQyMjR9IiwiZXhwIjoxNjEwMTAzMDQxLCJ1c2VyIjoie1wiZXhwaXJlc0RhdGVcIjoxNjEwMTAzMDQxNTg5LFwicGxhdGZvcm1cIjpcImNvbnRyb2xcIixcInNlc3Npb25JZFwiOlwiMUIwQ0MxQ0EtQ0I1NC00RThBLTgyNTUtRDBCMkI5RDVFNzc0XCIsXCJ0b2tlblNjZW5lXCI6XCJVU0VSX0xPR0lOXCIsXCJ0b29sXCI6XCIyXCIsXCJ1c2VySWRcIjoyMDIwMDUyODE0MjI0fSIsImlhdCI6MTYxMDEwMTI0MX0.Ft_UCBCCj6z4DWb3-v3LStL7LBBHrspj0jxu8kMLpoBdSh7Q_43_MYTZMY8gsDjAZFaANuPMcd3p2J_njYUHiQ","tokenExpires":1610103041589,"imgUrl":"https://qauserimgs.jeejio.com/qa/2020052814224/userinfo/2020-11-24/56acf782058e4e36907e295bec89f977.jpg","userPasswd":"1","phone":"f","userEmail":"13126668274@163.com","id":2020052814224,"email":"f","account":"t","status":1},"success":1,"statusCode":200}</t>
-  </si>
-  <si>
-    <t>resultValue/token
-resultValue/sessionId
-resultValue/id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Content-Type=application/json;charset=utf-8
-token='token'
-sessionId='sessionId'</t>
+    <t>Accept-Language=zh_CN</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sql结果验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试失败！！！ --&gt; null未找到！</t>
+  </si>
+  <si>
+    <t>{"resultValue":{"dangerNum":1,"passwordIsEmpty":1,"level":80,"loginKey":"h6thqd5Z4t44tM/6PCgfbaPhh1Wh+QjS5M82rS5+ogMlAZxOn+8P97sItACLNNUph9igtJOt0pt7QPsVBWLjwPbG4iupVybfhFudK+b2GYI/Hkhgpe3WC6ZnSxVgki1wfUv3OrOIeUxOYzFazw6jEDN21JP6jOsJvnpjNCDYJtU=","userPhone":"13126668274","sysAccount":"21383","sessionId":"1B0CC1CA-CB54-4E8A-8255-D0B2B9D5E774","userBirth":"2020-05-28","source":0,"userName":"球球","userCode":"jeejio_11384","token":"eyJ0eXAiOiJKV1QiLCJhbGciOiJSUzI1NiJ9.eyJzdWIiOiJ7XCJleHBpcmVzRGF0ZVwiOjE2MTI0MjM1NDkzNjYsXCJwbGF0Zm9ybVwiOlwiY29udHJvbFwiLFwic2Vzc2lvbklkXCI6XCIxQjBDQzFDQS1DQjU0LTRFOEEtODI1NS1EMEIyQjlENUU3NzRcIixcInRva2VuU2NlbmVcIjpcIlVTRVJfTE9HSU5cIixcInRvb2xcIjpcIjJcIixcInVzZXJJZFwiOjIwMjAwNTI4MTQyMjR9IiwiZXhwIjoxNjEyNDIzNTQ5LCJ1c2VyIjoie1wiZXhwaXJlc0RhdGVcIjoxNjEyNDIzNTQ5MzY2LFwicGxhdGZvcm1cIjpcImNvbnRyb2xcIixcInNlc3Npb25JZFwiOlwiMUIwQ0MxQ0EtQ0I1NC00RThBLTgyNTUtRDBCMkI5RDVFNzc0XCIsXCJ0b2tlblNjZW5lXCI6XCJVU0VSX0xPR0lOXCIsXCJ0b29sXCI6XCIyXCIsXCJ1c2VySWRcIjoyMDIwMDUyODE0MjI0fSIsImlhdCI6MTYxMjQyMTc0OX0.TK7BZyby8g-X-9vs5TdnhNgDsJDzgxs5RQjCp6gD0IUFAGr6XxirFM0G78MjJFNAPccjoAAYKyZA-g8LV9-eJA","tokenExpires":1612423549366,"imgUrl":"https://qauserimgs.jeejio.com/qa/2020052814224/userinfo/2020-11-24/56acf782058e4e36907e295bec89f977.jpg","userPasswd":"1","phone":"f","userEmail":"13126668274@163.com","id":2020052814224,"email":"f","account":"t","status":1},"success":1,"statusCode":200}</t>
+  </si>
+  <si>
+    <t>resultValue/id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"resultValue":{"dangerNum":1,"passwordIsEmpty":1,"level":80,"loginKey":"DBCAcjTPdQYlnLx6+T9Wz9CB9bJpLRVyxrzJmRzVQeyMzdy0BaH4yvrTdtXkoaccRo5KNj87QEdpycbRkT0EGlVZqSbUn7OapsWAhTQdeBRnc3gdno3JhAlLqzHgCYp9GALxiT8AirrU+vuXtgWjOZoPL7YYW+U3MQMG9wrb+KI=","userPhone":"13126668274","sysAccount":"21383","sessionId":"1B0CC1CA-CB54-4E8A-8255-D0B2B9D5E774","userBirth":"2020-05-28","source":0,"userName":"球球","userCode":"jeejio_11384","token":"eyJ0eXAiOiJKV1QiLCJhbGciOiJSUzI1NiJ9.eyJzdWIiOiJ7XCJleHBpcmVzRGF0ZVwiOjE2MTI0MjM1OTg4NTEsXCJwbGF0Zm9ybVwiOlwiY29udHJvbFwiLFwic2Vzc2lvbklkXCI6XCIxQjBDQzFDQS1DQjU0LTRFOEEtODI1NS1EMEIyQjlENUU3NzRcIixcInRva2VuU2NlbmVcIjpcIlVTRVJfTE9HSU5cIixcInRvb2xcIjpcIjJcIixcInVzZXJJZFwiOjIwMjAwNTI4MTQyMjR9IiwiZXhwIjoxNjEyNDIzNTk4LCJ1c2VyIjoie1wiZXhwaXJlc0RhdGVcIjoxNjEyNDIzNTk4ODUxLFwicGxhdGZvcm1cIjpcImNvbnRyb2xcIixcInNlc3Npb25JZFwiOlwiMUIwQ0MxQ0EtQ0I1NC00RThBLTgyNTUtRDBCMkI5RDVFNzc0XCIsXCJ0b2tlblNjZW5lXCI6XCJVU0VSX0xPR0lOXCIsXCJ0b29sXCI6XCIyXCIsXCJ1c2VySWRcIjoyMDIwMDUyODE0MjI0fSIsImlhdCI6MTYxMjQyMTc5OH0.AjYnsdCJv8y4YFR27iR6igQU1-Qp0XmeI0VYADR1IaFTG6B9BVhAQxINWbhCcMUzugzzLG0bw8bx0P5E41VYkQ","tokenExpires":1612423598851,"imgUrl":"https://qauserimgs.jeejio.com/qa/2020052814224/userinfo/2020-11-24/56acf782058e4e36907e295bec89f977.jpg","userPasswd":"1","phone":"f","userEmail":"13126668274@163.com","id":2020052814224,"email":"f","account":"t","status":1},"success":1,"statusCode":200}</t>
+  </si>
+  <si>
+    <t>{"success":0,"errorCode":"85130009","message":"设备不在线,不能执行操作","statusCode":200}</t>
+  </si>
+  <si>
+    <t>测试失败！！！</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -362,40 +368,40 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="8" hidden="1" name="超链接" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="已访问的超链接" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -412,10 +418,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -573,7 +579,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -582,13 +588,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -598,7 +604,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -607,7 +613,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -616,7 +622,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -626,12 +632,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -662,7 +668,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -681,7 +687,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -693,38 +699,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+      <selection activeCell="I4" pane="bottomLeft" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="26.125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="38.25" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="48.25" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.5" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="23.875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19.25" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="74.875" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="69.5" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="31.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="5.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="69.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="5.25" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="20.125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="9.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="26.125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="38.25" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="9.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="48.25" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="13.5" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="23.875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="19.25" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="74.875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="69.5" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="31.625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="5.5" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.25" collapsed="false"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="69.375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -773,14 +780,17 @@
       <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="101.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row customHeight="1" ht="101.25" r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -799,17 +809,17 @@
       <c r="F2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>21</v>
@@ -818,7 +828,7 @@
         <v>29</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="N2" s="3">
         <v>200</v>
@@ -829,14 +839,17 @@
       <c r="P2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="131.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row customHeight="1" ht="131.25" r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -856,13 +869,13 @@
         <v>20</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H3" s="3">
         <v>1</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>21</v>
@@ -874,7 +887,7 @@
         <v>26</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N3" s="3">
         <v>200</v>
@@ -885,14 +898,17 @@
       <c r="P3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Q3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="67.5" x14ac:dyDescent="0.15">
+    <row ht="67.5" r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -912,13 +928,13 @@
         <v>20</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="H4" s="3">
         <v>1</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>21</v>
@@ -927,10 +943,10 @@
         <v>21</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="N4" s="3">
         <v>200</v>
@@ -941,28 +957,31 @@
       <c r="P4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="Q4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="R4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="R4" s="3" t="s">
-        <v>31</v>
+      <c r="S4" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q1048576" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="R1:R1048576" type="list" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"yes,no"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{581F6EDF-4799-4DCD-9FC9-270FE2F5A6C4}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="F1:F1048576" type="list" xr:uid="{581F6EDF-4799-4DCD-9FC9-270FE2F5A6C4}">
       <formula1>"get,post,put,delete"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{BFB11C5A-1745-4A6A-9B14-A29FD2FF8A77}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C1:C1048576" type="list" xr:uid="{BFB11C5A-1745-4A6A-9B14-A29FD2FF8A77}">
       <formula1>"http,https"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>